--- a/doc/전달받는_파라미터.xlsx
+++ b/doc/전달받는_파라미터.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>p</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sort_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,22 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1페이지-&gt;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출력될 열수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title,all(post_subject),post_text 불리언 검색이 될 듯)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주현태-&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,6 +87,58 @@
   </si>
   <si>
     <t>시작 일자(TIMESTAMP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오름/내림차순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeStamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeStampe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,각 포럼 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score,post_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asc,desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int (출력될 열 개수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int (1,2,3,4… 페이지 번호)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +564,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,10 +582,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -568,10 +596,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -580,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -592,73 +620,87 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
